--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf15-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf15-Fgfr1.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Fgf15</t>
+  </si>
+  <si>
+    <t>Fgfr1</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf15</t>
-  </si>
-  <si>
-    <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -537,22 +537,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01619866666666667</v>
+        <v>0.05008433333333333</v>
       </c>
       <c r="H2">
-        <v>0.04859600000000001</v>
+        <v>0.150253</v>
       </c>
       <c r="I2">
-        <v>0.5323897062851258</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="J2">
-        <v>0.5323897062851259</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N2">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O2">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P2">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q2">
-        <v>0.09484883046933336</v>
+        <v>0.5252683274551111</v>
       </c>
       <c r="R2">
-        <v>0.8536394742240002</v>
+        <v>4.727414947095999</v>
       </c>
       <c r="S2">
-        <v>0.02711433520171815</v>
+        <v>0.03733193205319423</v>
       </c>
       <c r="T2">
-        <v>0.02711433520171816</v>
+        <v>0.03733193205319423</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01619866666666667</v>
+        <v>0.05008433333333333</v>
       </c>
       <c r="H3">
-        <v>0.04859600000000001</v>
+        <v>0.150253</v>
       </c>
       <c r="I3">
-        <v>0.5323897062851258</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="J3">
-        <v>0.5323897062851259</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>188.990975</v>
       </c>
       <c r="O3">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P3">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q3">
-        <v>1.020467269011111</v>
+        <v>3.155162329630556</v>
       </c>
       <c r="R3">
-        <v>9.184205421100001</v>
+        <v>28.396460966675</v>
       </c>
       <c r="S3">
-        <v>0.2917199026855185</v>
+        <v>0.2242440664131458</v>
       </c>
       <c r="T3">
-        <v>0.2917199026855185</v>
+        <v>0.2242440664131457</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01619866666666667</v>
+        <v>0.05008433333333333</v>
       </c>
       <c r="H4">
-        <v>0.04859600000000001</v>
+        <v>0.150253</v>
       </c>
       <c r="I4">
-        <v>0.5323897062851258</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="J4">
-        <v>0.5323897062851259</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N4">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O4">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P4">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q4">
-        <v>0.004277198538222223</v>
+        <v>0.01664198889044444</v>
       </c>
       <c r="R4">
-        <v>0.038494786844</v>
+        <v>0.149777900014</v>
       </c>
       <c r="S4">
-        <v>0.00122271823823018</v>
+        <v>0.001182781382418644</v>
       </c>
       <c r="T4">
-        <v>0.00122271823823018</v>
+        <v>0.001182781382418644</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.01619866666666667</v>
+        <v>0.05008433333333333</v>
       </c>
       <c r="H5">
-        <v>0.04859600000000001</v>
+        <v>0.150253</v>
       </c>
       <c r="I5">
-        <v>0.5323897062851258</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="J5">
-        <v>0.5323897062851259</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N5">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O5">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P5">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q5">
-        <v>0.7105384928520001</v>
+        <v>0.5135940199454445</v>
       </c>
       <c r="R5">
-        <v>6.394846435668001</v>
+        <v>4.622346179509</v>
       </c>
       <c r="S5">
-        <v>0.203120890089855</v>
+        <v>0.03650221430335291</v>
       </c>
       <c r="T5">
-        <v>0.203120890089855</v>
+        <v>0.03650221430335291</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.01619866666666667</v>
+        <v>0.05008433333333333</v>
       </c>
       <c r="H6">
-        <v>0.04859600000000001</v>
+        <v>0.150253</v>
       </c>
       <c r="I6">
-        <v>0.5323897062851258</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="J6">
-        <v>0.5323897062851259</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N6">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O6">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P6">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q6">
-        <v>0.01236173708933334</v>
+        <v>0.03792467524411111</v>
       </c>
       <c r="R6">
-        <v>0.111255633804</v>
+        <v>0.341322077197</v>
       </c>
       <c r="S6">
-        <v>0.003533836753254081</v>
+        <v>0.002695386958151606</v>
       </c>
       <c r="T6">
-        <v>0.003533836753254082</v>
+        <v>0.002695386958151606</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,25 +844,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.01619866666666667</v>
+        <v>0.05008433333333333</v>
       </c>
       <c r="H7">
-        <v>0.04859600000000001</v>
+        <v>0.150253</v>
       </c>
       <c r="I7">
-        <v>0.5323897062851258</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="J7">
-        <v>0.5323897062851259</v>
+        <v>0.3054767171413236</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N7">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O7">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P7">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q7">
-        <v>0.01986232990577778</v>
+        <v>0.04953188644188889</v>
       </c>
       <c r="R7">
-        <v>0.178760969152</v>
+        <v>0.445786977977</v>
       </c>
       <c r="S7">
-        <v>0.005678023316549968</v>
+        <v>0.00352033603106053</v>
       </c>
       <c r="T7">
-        <v>0.005678023316549968</v>
+        <v>0.00352033603106053</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.01422766666666667</v>
+        <v>0.1138703333333333</v>
       </c>
       <c r="H8">
-        <v>0.042683</v>
+        <v>0.341611</v>
       </c>
       <c r="I8">
-        <v>0.4676102937148741</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="J8">
-        <v>0.4676102937148742</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.855348</v>
+        <v>10.48767733333333</v>
       </c>
       <c r="N8">
-        <v>17.566044</v>
+        <v>31.463032</v>
       </c>
       <c r="O8">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="P8">
-        <v>0.05092948808292105</v>
+        <v>0.1222087640673552</v>
       </c>
       <c r="Q8">
-        <v>0.08330793956133334</v>
+        <v>1.194235313839111</v>
       </c>
       <c r="R8">
-        <v>0.749771456052</v>
+        <v>10.748117824552</v>
       </c>
       <c r="S8">
-        <v>0.02381515288120289</v>
+        <v>0.084876832014161</v>
       </c>
       <c r="T8">
-        <v>0.02381515288120289</v>
+        <v>0.084876832014161</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.01422766666666667</v>
+        <v>0.1138703333333333</v>
       </c>
       <c r="H9">
-        <v>0.042683</v>
+        <v>0.341611</v>
       </c>
       <c r="I9">
-        <v>0.4676102937148741</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="J9">
-        <v>0.4676102937148742</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>188.990975</v>
       </c>
       <c r="O9">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058636</v>
       </c>
       <c r="P9">
-        <v>0.547944295769846</v>
+        <v>0.7340790765058635</v>
       </c>
       <c r="Q9">
-        <v>0.8963001984361111</v>
+        <v>7.173488440080556</v>
       </c>
       <c r="R9">
-        <v>8.066701785925</v>
+        <v>64.56139596072499</v>
       </c>
       <c r="S9">
-        <v>0.2562243930843275</v>
+        <v>0.5098350100927178</v>
       </c>
       <c r="T9">
-        <v>0.2562243930843276</v>
+        <v>0.5098350100927177</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.01422766666666667</v>
+        <v>0.1138703333333333</v>
       </c>
       <c r="H10">
-        <v>0.042683</v>
+        <v>0.341611</v>
       </c>
       <c r="I10">
-        <v>0.4676102937148741</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="J10">
-        <v>0.4676102937148742</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2640463333333333</v>
+        <v>0.3322793333333333</v>
       </c>
       <c r="N10">
-        <v>0.7921389999999999</v>
+        <v>0.996838</v>
       </c>
       <c r="O10">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="P10">
-        <v>0.002296660179179615</v>
+        <v>0.003871919907635547</v>
       </c>
       <c r="Q10">
-        <v>0.003756763215222222</v>
+        <v>0.03783675844644444</v>
       </c>
       <c r="R10">
-        <v>0.033810868937</v>
+        <v>0.340530826018</v>
       </c>
       <c r="S10">
-        <v>0.001073941940949435</v>
+        <v>0.002689138525216903</v>
       </c>
       <c r="T10">
-        <v>0.001073941940949435</v>
+        <v>0.002689138525216903</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.01422766666666667</v>
+        <v>0.1138703333333333</v>
       </c>
       <c r="H11">
-        <v>0.042683</v>
+        <v>0.341611</v>
       </c>
       <c r="I11">
-        <v>0.4676102937148741</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="J11">
-        <v>0.4676102937148742</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.864011</v>
+        <v>10.25458433333333</v>
       </c>
       <c r="N11">
-        <v>131.592033</v>
+        <v>30.763753</v>
       </c>
       <c r="O11">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="P11">
-        <v>0.3815267043894944</v>
+        <v>0.1194926233493133</v>
       </c>
       <c r="Q11">
-        <v>0.624082527171</v>
+        <v>1.167692936231445</v>
       </c>
       <c r="R11">
-        <v>5.616742744539</v>
+        <v>10.509236426083</v>
       </c>
       <c r="S11">
-        <v>0.1784058142996394</v>
+        <v>0.08299040904596042</v>
       </c>
       <c r="T11">
-        <v>0.1784058142996395</v>
+        <v>0.08299040904596042</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.01422766666666667</v>
+        <v>0.1138703333333333</v>
       </c>
       <c r="H12">
-        <v>0.042683</v>
+        <v>0.341611</v>
       </c>
       <c r="I12">
-        <v>0.4676102937148741</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="J12">
-        <v>0.4676102937148742</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.763133</v>
+        <v>0.7572163333333334</v>
       </c>
       <c r="N12">
-        <v>2.289399</v>
+        <v>2.271649</v>
       </c>
       <c r="O12">
-        <v>0.006637687978440185</v>
+        <v>0.008823543029319092</v>
       </c>
       <c r="P12">
-        <v>0.006637687978440185</v>
+        <v>0.00882354302931909</v>
       </c>
       <c r="Q12">
-        <v>0.01085760194633333</v>
+        <v>0.08622447628211112</v>
       </c>
       <c r="R12">
-        <v>0.097718417517</v>
+        <v>0.776020286539</v>
       </c>
       <c r="S12">
-        <v>0.003103851225186104</v>
+        <v>0.006128156071167486</v>
       </c>
       <c r="T12">
-        <v>0.003103851225186104</v>
+        <v>0.006128156071167484</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,25 +1216,25 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.01422766666666667</v>
+        <v>0.1138703333333333</v>
       </c>
       <c r="H13">
-        <v>0.042683</v>
+        <v>0.341611</v>
       </c>
       <c r="I13">
-        <v>0.4676102937148741</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="J13">
-        <v>0.4676102937148742</v>
+        <v>0.6945232828586764</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.226170666666667</v>
+        <v>0.9889696666666666</v>
       </c>
       <c r="N13">
-        <v>3.678512</v>
+        <v>2.966909</v>
       </c>
       <c r="O13">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="P13">
-        <v>0.01066516360011862</v>
+        <v>0.01152407314051338</v>
       </c>
       <c r="Q13">
-        <v>0.01744554752177778</v>
+        <v>0.1126143055998889</v>
       </c>
       <c r="R13">
-        <v>0.157009927696</v>
+        <v>1.013528750399</v>
       </c>
       <c r="S13">
-        <v>0.004987140283568652</v>
+        <v>0.008003737109452848</v>
       </c>
       <c r="T13">
-        <v>0.004987140283568652</v>
+        <v>0.008003737109452846</v>
       </c>
     </row>
   </sheetData>
